--- a/conf_xlsx/Config_Mysql.xlsx
+++ b/conf_xlsx/Config_Mysql.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D0641-0B7E-4782-991E-2EB06C26F460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FC1D4-0318-408D-A20A-7A7C7EB222B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="10785" windowWidth="16230" windowHeight="9315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>Passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属大区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,43 +393,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/conf_xlsx/Config_Mysql.xlsx
+++ b/conf_xlsx/Config_Mysql.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0FC1D4-0318-408D-A20A-7A7C7EB222B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE195E9-7286-410C-8DD4-49EDE4E86F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="6015" windowWidth="16230" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,15 +59,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DBName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属大区</t>
+    <t>127.0.0.1:33091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mu_game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,55 +413,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>123456</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>123456</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
